--- a/target/classes/caseconf/GrantGetById/Case_GrantGetById.xlsx
+++ b/target/classes/caseconf/GrantGetById/Case_GrantGetById.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9760"/>
   </bookViews>
   <sheets>
     <sheet name="GrantGetById" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -205,16 +206,6 @@
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into tenant_user_grant values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -319,15 +310,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from tenant_user_grant where user_id = 699222007535509504;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "grantId":700311580205498368,
  "tenantId":"1001"
@@ -368,16 +350,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into tenant_user_grant values ("700311580205498368","1001","699222007535509504",35,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "grantId":700311580205498368,
  "tenantId":"1001"
@@ -437,10 +409,7 @@
       <t>bi'chuan</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>que'shi</t>
+      <t>can'shuque'shi</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -478,6 +447,25 @@
   </si>
   <si>
     <t>GrantGetById-008</t>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001;
+delete from tenant_user_grant where user_id = 699222007535509504;
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1095,7 +1083,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1105,7 +1093,7 @@
     <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" style="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="7.9140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="44.25" style="38" customWidth="1"/>
+    <col min="6" max="6" width="62.83203125" style="38" customWidth="1"/>
     <col min="7" max="7" width="34.75" style="8" customWidth="1"/>
     <col min="8" max="8" width="36.58203125" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
@@ -1178,34 +1166,34 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="19" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="52" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>33</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N2" s="36"/>
       <c r="O2" s="46"/>
@@ -1215,30 +1203,30 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="36"/>
       <c r="O3" s="46"/>
@@ -1248,30 +1236,30 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" s="37"/>
       <c r="O4" s="43"/>
@@ -1281,34 +1269,34 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="19" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="J5" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N5" s="36"/>
       <c r="O5" s="46"/>
@@ -1320,30 +1308,30 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="36"/>
       <c r="O6" s="46"/>
@@ -1353,30 +1341,30 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N7" s="36"/>
       <c r="O7" s="46"/>
@@ -1386,30 +1374,30 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="252">
@@ -1417,30 +1405,30 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="J9" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="11" customFormat="1" ht="23" customHeight="1">

--- a/target/classes/caseconf/GrantGetById/Case_GrantGetById.xlsx
+++ b/target/classes/caseconf/GrantGetById/Case_GrantGetById.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/GrantGetById/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9760"/>
+    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="GrantGetById" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -318,6 +328,119 @@
   </si>
   <si>
     <t>{
+"tenantId":"1001",
+"grantId":"694239654765543423"
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"33333",
+"grantId":"694239654765543423"
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "grantId":700311580205498368,
+ "tenantId":"1001"
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "USR4003",
+    "resMsg": "授权服务类型不存在",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "grantId":700311580205498368,
+ "tenantId":""
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数-grantrId为空</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "grantId":"",
+ "tenantId":"1001"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.getGrantById(***.web.request.QueryGrantByIdRequest): [Field error in object 'queryGrantByIdRequest' on field 'grantId': rejected value [null]; codes [NotNull.queryGrantByIdRequest.grantId,NotNull.grantId,NotNull.java.lang.Long,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryGrantByIdRequest.grantId,grantId]; arguments []; default message [grantId]]; default message [grant id cannot be null]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "grantId":700311580205498368
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数-grantId缺失</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'shuque'shi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrantGetById-001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrantGetById-002</t>
+  </si>
+  <si>
+    <t>GrantGetById-003</t>
+  </si>
+  <si>
+    <t>GrantGetById-004</t>
+  </si>
+  <si>
+    <t>GrantGetById-005</t>
+  </si>
+  <si>
+    <t>GrantGetById-006</t>
+  </si>
+  <si>
+    <t>GrantGetById-007</t>
+  </si>
+  <si>
+    <t>GrantGetById-008</t>
+  </si>
+  <si>
+    <t>{
     "resCode": "E0000",
     "resMsg": "成功",
     "successful": 1,
@@ -326,7 +449,7 @@
         "tenantId": "1001",
         "userId": 699222007535509504,
         "parentId": 0,
-        "typeId": 2,
+        "typeId": 205,
         "account": "4f82d6478e368b2dbc23ff648ef7ef1f",
         "status": "success",
         "createTime": "2020-04-16T11:48:12.000+0800",
@@ -336,117 +459,33 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId":"1001",
-"grantId":"694239654765543423"
-}</t>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";
+delete from tenant_user_grant where user_id = 699222007535509504;
+delete from grant_type where id="205"
+</t>
+  </si>
+  <si>
+    <t>tenantId重复</t>
+    <rPh sb="8" eb="9">
+      <t>chong'fu</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId":"33333",
-"grantId":"694239654765543423"
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "grantId":700311580205498368,
- "tenantId":"1001"
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "USR4003",
-    "resMsg": "授权服务类型不存在",
-    "successful": 0
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "grantId":700311580205498368,
- "tenantId":""
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>必传参数-grantrId为空</t>
+    <t>无法造数据</t>
     <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
+      <t>wu'fa'zao</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>can'shu</t>
+      <t>zao</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "grantId":"",
- "tenantId":"1001"
-}</t>
+    <rPh sb="3" eb="4">
+      <t>shu'ju</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.getGrantById(***.web.request.QueryGrantByIdRequest): [Field error in object 'queryGrantByIdRequest' on field 'grantId': rejected value [null]; codes [NotNull.queryGrantByIdRequest.grantId,NotNull.grantId,NotNull.java.lang.Long,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryGrantByIdRequest.grantId,grantId]; arguments []; default message [grantId]]; default message [grant id cannot be null]] "
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "grantId":700311580205498368
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>必传参数-grantId缺失</t>
-    <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>can'shuque'shi</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId":"1001"
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrantGetById-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrantGetById-002</t>
-  </si>
-  <si>
-    <t>GrantGetById-003</t>
-  </si>
-  <si>
-    <t>GrantGetById-004</t>
-  </si>
-  <si>
-    <t>GrantGetById-005</t>
-  </si>
-  <si>
-    <t>GrantGetById-006</t>
-  </si>
-  <si>
-    <t>GrantGetById-007</t>
-  </si>
-  <si>
-    <t>GrantGetById-008</t>
   </si>
   <si>
     <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -455,15 +494,26 @@
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
+insert into  grant_type (id,parent_id,service_type,protocol,url) values (205,0,"unkownGrant",0,"www.baidu5.com");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("700311580205498368","1001","699222007535509504",205,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from tenant_user_grant where user_id = 699222007535509504;
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("700311580205498368","1001","699222007535509504",300,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";
+delete from tenant_user_grant where user_id = 699222007535509504
 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -471,8 +521,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,7 +630,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,12 +661,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -636,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -788,14 +832,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1079,36 +1117,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q183"/>
+  <dimension ref="A1:Q184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="62.83203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="8" customWidth="1"/>
-    <col min="8" max="8" width="36.58203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="16.58203125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="36.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="13" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15" style="38" customWidth="1"/>
     <col min="15" max="15" width="33.83203125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="17.9140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" style="5" customWidth="1"/>
     <col min="17" max="17" width="35" style="5" customWidth="1"/>
     <col min="18" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,23 +1199,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="372.5" customHeight="1">
+    <row r="2" spans="1:17" ht="372.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>28</v>
@@ -1186,60 +1224,48 @@
         <v>30</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="51" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="18" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N2" s="36"/>
       <c r="O2" s="46"/>
     </row>
-    <row r="3" spans="1:17" ht="144" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>19</v>
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>34</v>
-      </c>
+      <c r="F3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="16"/>
-      <c r="M3" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="M3" s="18"/>
       <c r="N3" s="36"/>
       <c r="O3" s="46"/>
     </row>
-    <row r="4" spans="1:17" ht="80.5" customHeight="1">
+    <row r="4" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -1252,99 +1278,99 @@
         <v>30</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="51" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="1:17" ht="409.5">
+      <c r="N4" s="36"/>
+      <c r="O4" s="46"/>
+    </row>
+    <row r="5" spans="1:17" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>32</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-    </row>
-    <row r="6" spans="1:17" ht="266">
+        <v>20</v>
+      </c>
+      <c r="N5" s="37"/>
+      <c r="O5" s="43"/>
+    </row>
+    <row r="6" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="H6" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="18" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N6" s="36"/>
       <c r="O6" s="46"/>
-    </row>
-    <row r="7" spans="1:17" ht="252">
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+    </row>
+    <row r="7" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1357,27 +1383,27 @@
         <v>30</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="18" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N7" s="36"/>
       <c r="O7" s="46"/>
     </row>
-    <row r="8" spans="1:17" ht="266">
+    <row r="8" spans="1:17" ht="270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1390,65 +1416,81 @@
         <v>30</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="252">
+        <v>39</v>
+      </c>
+      <c r="N8" s="36"/>
+      <c r="O8" s="46"/>
+    </row>
+    <row r="9" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="270" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="48"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="18"/>
+      <c r="H10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="L10" s="16"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" ht="17.5">
+      <c r="M10" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="14"/>
@@ -1463,9 +1505,9 @@
       <c r="L11" s="16"/>
       <c r="M11" s="18"/>
       <c r="N11" s="39"/>
-      <c r="O11" s="44"/>
-    </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1">
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="14"/>
@@ -1479,10 +1521,10 @@
       <c r="K12" s="18"/>
       <c r="L12" s="16"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="26"/>
-    </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" ht="93" customHeight="1">
+      <c r="N12" s="39"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="14"/>
@@ -1497,9 +1539,9 @@
       <c r="L13" s="16"/>
       <c r="M13" s="18"/>
       <c r="N13" s="40"/>
-      <c r="O13" s="45"/>
-    </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" ht="17.5">
+      <c r="O13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="14"/>
@@ -1513,10 +1555,10 @@
       <c r="K14" s="18"/>
       <c r="L14" s="16"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" ht="17.5">
+      <c r="N14" s="40"/>
+      <c r="O14" s="45"/>
+    </row>
+    <row r="15" spans="1:17" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="14"/>
@@ -1533,7 +1575,7 @@
       <c r="N15" s="39"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:17" s="11" customFormat="1" ht="17.5">
+    <row r="16" spans="1:17" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="14"/>
@@ -1550,7 +1592,7 @@
       <c r="N16" s="39"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="14"/>
@@ -1567,7 +1609,7 @@
       <c r="N17" s="39"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="14"/>
@@ -1584,7 +1626,7 @@
       <c r="N18" s="39"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="14"/>
@@ -1601,7 +1643,7 @@
       <c r="N19" s="39"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="14"/>
@@ -1618,7 +1660,7 @@
       <c r="N20" s="39"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="14"/>
@@ -1635,22 +1677,24 @@
       <c r="N21" s="39"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" ht="17.5">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="19"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="48"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="17"/>
       <c r="J22" s="28"/>
       <c r="K22" s="18"/>
       <c r="L22" s="16"/>
       <c r="M22" s="18"/>
-    </row>
-    <row r="23" spans="1:15" ht="17.5">
+      <c r="N22" s="39"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="19"/>
@@ -1665,7 +1709,7 @@
       <c r="L23" s="16"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:15" ht="17.5">
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="19"/>
@@ -1680,7 +1724,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="1:15" ht="17.5">
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="19"/>
@@ -1695,7 +1739,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="17.5">
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="19"/>
@@ -1710,7 +1754,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="1:15" ht="17.5">
+    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="19"/>
@@ -1725,7 +1769,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:15" ht="167" customHeight="1">
+    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="19"/>
@@ -1738,9 +1782,9 @@
       <c r="J28" s="28"/>
       <c r="K28" s="18"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="1:15" ht="207.5" customHeight="1">
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:15" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="19"/>
@@ -1753,9 +1797,9 @@
       <c r="J29" s="28"/>
       <c r="K29" s="18"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:15" ht="17.5">
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:15" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="19"/>
@@ -1770,7 +1814,7 @@
       <c r="L30" s="16"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="19"/>
@@ -1784,10 +1828,8 @@
       <c r="K31" s="18"/>
       <c r="L31" s="16"/>
       <c r="M31" s="18"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="19"/>
@@ -1804,7 +1846,7 @@
       <c r="N32" s="39"/>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="19"/>
@@ -1817,11 +1859,11 @@
       <c r="J33" s="28"/>
       <c r="K33" s="18"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="21"/>
+      <c r="M33" s="18"/>
       <c r="N33" s="39"/>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="19"/>
@@ -1838,7 +1880,7 @@
       <c r="N34" s="39"/>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" spans="1:15" ht="17.5">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="19"/>
@@ -1852,8 +1894,10 @@
       <c r="K35" s="18"/>
       <c r="L35" s="16"/>
       <c r="M35" s="21"/>
-    </row>
-    <row r="36" spans="1:15" ht="17.5">
+      <c r="N35" s="39"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="19"/>
@@ -1866,9 +1910,9 @@
       <c r="J36" s="28"/>
       <c r="K36" s="18"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="25"/>
-    </row>
-    <row r="37" spans="1:15" ht="17.5">
+      <c r="M36" s="21"/>
+    </row>
+    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="19"/>
@@ -1883,22 +1927,22 @@
       <c r="L37" s="16"/>
       <c r="M37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="114.5" customHeight="1">
+    <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="22"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="10"/>
       <c r="I38" s="17"/>
       <c r="J38" s="28"/>
       <c r="K38" s="18"/>
-      <c r="L38" s="24"/>
+      <c r="L38" s="16"/>
       <c r="M38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="119" customHeight="1">
+    <row r="39" spans="1:15" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="22"/>
@@ -1913,25 +1957,25 @@
       <c r="L39" s="24"/>
       <c r="M39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="169.5" customHeight="1">
+    <row r="40" spans="1:15" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="15"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="10"/>
       <c r="I40" s="17"/>
       <c r="J40" s="28"/>
       <c r="K40" s="18"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="18"/>
-    </row>
-    <row r="41" spans="1:15" ht="17.5">
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+    </row>
+    <row r="41" spans="1:15" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="19"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="48"/>
@@ -1943,14 +1987,14 @@
       <c r="L41" s="16"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="1:15" ht="17.5">
+    <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="22"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="10"/>
       <c r="I42" s="17"/>
       <c r="J42" s="28"/>
@@ -1958,7 +2002,7 @@
       <c r="L42" s="16"/>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="1:15" ht="17.5">
+    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="22"/>
@@ -1973,7 +2017,7 @@
       <c r="L43" s="16"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="1:15" ht="17.5">
+    <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="22"/>
@@ -1988,7 +2032,7 @@
       <c r="L44" s="16"/>
       <c r="M44" s="18"/>
     </row>
-    <row r="45" spans="1:15" ht="105" customHeight="1">
+    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="22"/>
@@ -2003,14 +2047,14 @@
       <c r="L45" s="16"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="1:15" ht="17.5">
+    <row r="46" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="15"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="22"/>
       <c r="H46" s="10"/>
       <c r="I46" s="17"/>
       <c r="J46" s="28"/>
@@ -2018,7 +2062,7 @@
       <c r="L46" s="16"/>
       <c r="M46" s="18"/>
     </row>
-    <row r="47" spans="1:15" ht="116.5" customHeight="1">
+    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="19"/>
@@ -2033,7 +2077,7 @@
       <c r="L47" s="16"/>
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="1:15" ht="17.5">
+    <row r="48" spans="1:15" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="19"/>
@@ -2048,7 +2092,7 @@
       <c r="L48" s="16"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="1:15" ht="17.5">
+    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="19"/>
@@ -2063,7 +2107,7 @@
       <c r="L49" s="16"/>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="1:15" ht="17.5">
+    <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="19"/>
@@ -2078,7 +2122,7 @@
       <c r="L50" s="16"/>
       <c r="M50" s="18"/>
     </row>
-    <row r="51" spans="1:15" ht="117.5" customHeight="1">
+    <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="19"/>
@@ -2093,7 +2137,7 @@
       <c r="L51" s="16"/>
       <c r="M51" s="18"/>
     </row>
-    <row r="52" spans="1:15" ht="17.5">
+    <row r="52" spans="1:15" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="19"/>
@@ -2108,7 +2152,7 @@
       <c r="L52" s="16"/>
       <c r="M52" s="18"/>
     </row>
-    <row r="53" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="53" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="19"/>
@@ -2122,10 +2166,8 @@
       <c r="K53" s="18"/>
       <c r="L53" s="16"/>
       <c r="M53" s="18"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="12"/>
-    </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="19"/>
@@ -2142,7 +2184,7 @@
       <c r="N54" s="39"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="55" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="19"/>
@@ -2159,7 +2201,7 @@
       <c r="N55" s="39"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="19"/>
@@ -2170,13 +2212,13 @@
       <c r="H56" s="10"/>
       <c r="I56" s="17"/>
       <c r="J56" s="28"/>
-      <c r="K56" s="21"/>
+      <c r="K56" s="18"/>
       <c r="L56" s="16"/>
       <c r="M56" s="18"/>
       <c r="N56" s="39"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" s="11" customFormat="1" ht="125" customHeight="1">
+    <row r="57" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="19"/>
@@ -2187,13 +2229,13 @@
       <c r="H57" s="10"/>
       <c r="I57" s="17"/>
       <c r="J57" s="28"/>
-      <c r="K57" s="18"/>
+      <c r="K57" s="21"/>
       <c r="L57" s="16"/>
       <c r="M57" s="18"/>
       <c r="N57" s="39"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1" ht="166.5" customHeight="1">
+    <row r="58" spans="1:15" s="11" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="19"/>
@@ -2206,11 +2248,11 @@
       <c r="J58" s="28"/>
       <c r="K58" s="18"/>
       <c r="L58" s="16"/>
-      <c r="M58" s="25"/>
+      <c r="M58" s="18"/>
       <c r="N58" s="39"/>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" s="11" customFormat="1" ht="110.5" customHeight="1">
+    <row r="59" spans="1:15" s="11" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="19"/>
@@ -2227,24 +2269,24 @@
       <c r="N59" s="39"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1">
+    <row r="60" spans="1:15" s="11" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="22"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="15"/>
       <c r="H60" s="10"/>
       <c r="I60" s="17"/>
       <c r="J60" s="28"/>
       <c r="K60" s="18"/>
-      <c r="L60" s="24"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="25"/>
       <c r="N60" s="39"/>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1">
+    <row r="61" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="22"/>
@@ -2261,24 +2303,24 @@
       <c r="N61" s="39"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" s="11" customFormat="1" ht="118.5" customHeight="1">
+    <row r="62" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="22"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="15"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="22"/>
       <c r="H62" s="10"/>
       <c r="I62" s="17"/>
       <c r="J62" s="28"/>
       <c r="K62" s="18"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="18"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="25"/>
       <c r="N62" s="39"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1">
+    <row r="63" spans="1:15" s="11" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="22"/>
@@ -2295,7 +2337,7 @@
       <c r="N63" s="39"/>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1">
+    <row r="64" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="22"/>
@@ -2312,7 +2354,7 @@
       <c r="N64" s="39"/>
       <c r="O64" s="12"/>
     </row>
-    <row r="65" spans="1:15" s="11" customFormat="1" ht="191.5" customHeight="1">
+    <row r="65" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="22"/>
@@ -2329,24 +2371,24 @@
       <c r="N65" s="39"/>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:15" s="11" customFormat="1" ht="128" customHeight="1">
+    <row r="66" spans="1:15" s="11" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="22"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="30"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="15"/>
       <c r="H66" s="10"/>
       <c r="I66" s="17"/>
       <c r="J66" s="28"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="31"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="18"/>
       <c r="N66" s="39"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:15" s="11" customFormat="1" ht="96.5" customHeight="1">
+    <row r="67" spans="1:15" s="11" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="22"/>
@@ -2363,7 +2405,7 @@
       <c r="N67" s="39"/>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:15" s="11" customFormat="1" ht="100.5" customHeight="1">
+    <row r="68" spans="1:15" s="11" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="22"/>
@@ -2380,7 +2422,7 @@
       <c r="N68" s="39"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="1:15" s="11" customFormat="1" ht="156.5" customHeight="1">
+    <row r="69" spans="1:15" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="22"/>
@@ -2397,7 +2439,7 @@
       <c r="N69" s="39"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1">
+    <row r="70" spans="1:15" s="11" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="22"/>
@@ -2414,7 +2456,7 @@
       <c r="N70" s="39"/>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="71" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="22"/>
@@ -2431,7 +2473,7 @@
       <c r="N71" s="39"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:15" s="11" customFormat="1" ht="161.5" customHeight="1">
+    <row r="72" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="22"/>
@@ -2448,7 +2490,7 @@
       <c r="N72" s="39"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1">
+    <row r="73" spans="1:15" s="11" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="22"/>
@@ -2465,7 +2507,7 @@
       <c r="N73" s="39"/>
       <c r="O73" s="12"/>
     </row>
-    <row r="74" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="74" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="22"/>
@@ -2482,7 +2524,7 @@
       <c r="N74" s="39"/>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="75" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="22"/>
@@ -2499,7 +2541,7 @@
       <c r="N75" s="39"/>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="76" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="22"/>
@@ -2516,7 +2558,7 @@
       <c r="N76" s="39"/>
       <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="77" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="22"/>
@@ -2533,27 +2575,27 @@
       <c r="N77" s="39"/>
       <c r="O77" s="12"/>
     </row>
-    <row r="78" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="78" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="22"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="15"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="30"/>
       <c r="H78" s="10"/>
       <c r="I78" s="17"/>
       <c r="J78" s="28"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="18"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="31"/>
       <c r="N78" s="39"/>
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="79" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="19"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="48"/>
@@ -2567,7 +2609,7 @@
       <c r="N79" s="39"/>
       <c r="O79" s="12"/>
     </row>
-    <row r="80" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="80" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="19"/>
@@ -2580,11 +2622,11 @@
       <c r="J80" s="28"/>
       <c r="K80" s="18"/>
       <c r="L80" s="16"/>
-      <c r="M80" s="21"/>
+      <c r="M80" s="18"/>
       <c r="N80" s="39"/>
       <c r="O80" s="12"/>
     </row>
-    <row r="81" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="81" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="19"/>
@@ -2601,7 +2643,7 @@
       <c r="N81" s="39"/>
       <c r="O81" s="12"/>
     </row>
-    <row r="82" spans="1:15" s="11" customFormat="1" ht="204" customHeight="1">
+    <row r="82" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="19"/>
@@ -2618,7 +2660,7 @@
       <c r="N82" s="39"/>
       <c r="O82" s="12"/>
     </row>
-    <row r="83" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="83" spans="1:15" s="11" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="19"/>
@@ -2635,7 +2677,7 @@
       <c r="N83" s="39"/>
       <c r="O83" s="12"/>
     </row>
-    <row r="84" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="84" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="19"/>
@@ -2648,11 +2690,11 @@
       <c r="J84" s="28"/>
       <c r="K84" s="18"/>
       <c r="L84" s="16"/>
-      <c r="M84" s="18"/>
+      <c r="M84" s="21"/>
       <c r="N84" s="39"/>
       <c r="O84" s="12"/>
     </row>
-    <row r="85" spans="1:15" ht="17.5">
+    <row r="85" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="19"/>
@@ -2666,8 +2708,10 @@
       <c r="K85" s="18"/>
       <c r="L85" s="16"/>
       <c r="M85" s="18"/>
-    </row>
-    <row r="86" spans="1:15" ht="158.5" customHeight="1">
+      <c r="N85" s="39"/>
+      <c r="O85" s="12"/>
+    </row>
+    <row r="86" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="19"/>
@@ -2682,7 +2726,7 @@
       <c r="L86" s="16"/>
       <c r="M86" s="18"/>
     </row>
-    <row r="87" spans="1:15" ht="17.5">
+    <row r="87" spans="1:15" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="19"/>
@@ -2695,9 +2739,9 @@
       <c r="J87" s="28"/>
       <c r="K87" s="18"/>
       <c r="L87" s="16"/>
-      <c r="M87" s="21"/>
-    </row>
-    <row r="88" spans="1:15" ht="91.75" customHeight="1">
+      <c r="M87" s="18"/>
+    </row>
+    <row r="88" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="19"/>
@@ -2712,7 +2756,7 @@
       <c r="L88" s="16"/>
       <c r="M88" s="21"/>
     </row>
-    <row r="89" spans="1:15" ht="165" customHeight="1">
+    <row r="89" spans="1:15" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="19"/>
@@ -2724,10 +2768,10 @@
       <c r="I89" s="17"/>
       <c r="J89" s="28"/>
       <c r="K89" s="18"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="31"/>
-    </row>
-    <row r="90" spans="1:15" ht="108" customHeight="1">
+      <c r="L89" s="16"/>
+      <c r="M89" s="21"/>
+    </row>
+    <row r="90" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="19"/>
@@ -2739,10 +2783,10 @@
       <c r="I90" s="17"/>
       <c r="J90" s="28"/>
       <c r="K90" s="18"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="25"/>
-    </row>
-    <row r="91" spans="1:15" ht="101" customHeight="1">
+      <c r="L90" s="30"/>
+      <c r="M90" s="31"/>
+    </row>
+    <row r="91" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="19"/>
@@ -2757,22 +2801,22 @@
       <c r="L91" s="16"/>
       <c r="M91" s="25"/>
     </row>
-    <row r="92" spans="1:15" ht="88" customHeight="1">
+    <row r="92" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="22"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="15"/>
       <c r="H92" s="10"/>
       <c r="I92" s="17"/>
       <c r="J92" s="28"/>
       <c r="K92" s="18"/>
-      <c r="L92" s="24"/>
+      <c r="L92" s="16"/>
       <c r="M92" s="25"/>
     </row>
-    <row r="93" spans="1:15" ht="98" customHeight="1">
+    <row r="93" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="22"/>
@@ -2787,22 +2831,22 @@
       <c r="L93" s="24"/>
       <c r="M93" s="25"/>
     </row>
-    <row r="94" spans="1:15" ht="156" customHeight="1">
+    <row r="94" spans="1:15" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="22"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="15"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="22"/>
       <c r="H94" s="10"/>
       <c r="I94" s="17"/>
       <c r="J94" s="28"/>
       <c r="K94" s="18"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="18"/>
-    </row>
-    <row r="95" spans="1:15" ht="172.5" customHeight="1">
+      <c r="L94" s="24"/>
+      <c r="M94" s="25"/>
+    </row>
+    <row r="95" spans="1:15" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="22"/>
@@ -2817,7 +2861,7 @@
       <c r="L95" s="16"/>
       <c r="M95" s="18"/>
     </row>
-    <row r="96" spans="1:15" ht="79" customHeight="1">
+    <row r="96" spans="1:15" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="22"/>
@@ -2832,7 +2876,7 @@
       <c r="L96" s="16"/>
       <c r="M96" s="18"/>
     </row>
-    <row r="97" spans="1:13" ht="102.5" customHeight="1">
+    <row r="97" spans="1:13" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="22"/>
@@ -2847,7 +2891,7 @@
       <c r="L97" s="16"/>
       <c r="M97" s="18"/>
     </row>
-    <row r="98" spans="1:13" ht="51" customHeight="1">
+    <row r="98" spans="1:13" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="22"/>
@@ -2862,7 +2906,7 @@
       <c r="L98" s="16"/>
       <c r="M98" s="18"/>
     </row>
-    <row r="99" spans="1:13" ht="121.25" customHeight="1">
+    <row r="99" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="22"/>
@@ -2877,7 +2921,7 @@
       <c r="L99" s="16"/>
       <c r="M99" s="18"/>
     </row>
-    <row r="100" spans="1:13" ht="49.5" customHeight="1">
+    <row r="100" spans="1:13" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="22"/>
@@ -2892,7 +2936,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="1:13" ht="56.4" customHeight="1">
+    <row r="101" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="22"/>
@@ -2907,7 +2951,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="18"/>
     </row>
-    <row r="102" spans="1:13" ht="104" customHeight="1">
+    <row r="102" spans="1:13" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="22"/>
@@ -2922,7 +2966,7 @@
       <c r="L102" s="16"/>
       <c r="M102" s="18"/>
     </row>
-    <row r="103" spans="1:13" ht="95.4" customHeight="1">
+    <row r="103" spans="1:13" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="22"/>
@@ -2937,7 +2981,7 @@
       <c r="L103" s="16"/>
       <c r="M103" s="18"/>
     </row>
-    <row r="104" spans="1:13" ht="78" customHeight="1">
+    <row r="104" spans="1:13" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="22"/>
@@ -2952,7 +2996,7 @@
       <c r="L104" s="16"/>
       <c r="M104" s="18"/>
     </row>
-    <row r="105" spans="1:13" ht="17.5">
+    <row r="105" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="22"/>
@@ -2967,7 +3011,7 @@
       <c r="L105" s="16"/>
       <c r="M105" s="18"/>
     </row>
-    <row r="106" spans="1:13" ht="17.5">
+    <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="22"/>
@@ -2982,7 +3026,7 @@
       <c r="L106" s="16"/>
       <c r="M106" s="18"/>
     </row>
-    <row r="107" spans="1:13" ht="17.5">
+    <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="22"/>
@@ -2997,7 +3041,7 @@
       <c r="L107" s="16"/>
       <c r="M107" s="18"/>
     </row>
-    <row r="108" spans="1:13" ht="17.5">
+    <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="22"/>
@@ -3012,7 +3056,7 @@
       <c r="L108" s="16"/>
       <c r="M108" s="18"/>
     </row>
-    <row r="109" spans="1:13" ht="17.5">
+    <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="22"/>
@@ -3027,7 +3071,7 @@
       <c r="L109" s="16"/>
       <c r="M109" s="18"/>
     </row>
-    <row r="110" spans="1:13" ht="17.5">
+    <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="22"/>
@@ -3042,7 +3086,7 @@
       <c r="L110" s="16"/>
       <c r="M110" s="18"/>
     </row>
-    <row r="111" spans="1:13" ht="17.5">
+    <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="22"/>
@@ -3057,7 +3101,7 @@
       <c r="L111" s="16"/>
       <c r="M111" s="18"/>
     </row>
-    <row r="112" spans="1:13" ht="17.5">
+    <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="22"/>
@@ -3072,7 +3116,7 @@
       <c r="L112" s="16"/>
       <c r="M112" s="18"/>
     </row>
-    <row r="113" spans="1:13" ht="108" customHeight="1">
+    <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="22"/>
@@ -3087,7 +3131,7 @@
       <c r="L113" s="16"/>
       <c r="M113" s="18"/>
     </row>
-    <row r="114" spans="1:13" ht="17.5">
+    <row r="114" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="22"/>
@@ -3102,7 +3146,7 @@
       <c r="L114" s="16"/>
       <c r="M114" s="18"/>
     </row>
-    <row r="115" spans="1:13" ht="17.5">
+    <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="22"/>
@@ -3117,7 +3161,7 @@
       <c r="L115" s="16"/>
       <c r="M115" s="18"/>
     </row>
-    <row r="116" spans="1:13" ht="70.75" customHeight="1">
+    <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="22"/>
@@ -3132,7 +3176,7 @@
       <c r="L116" s="16"/>
       <c r="M116" s="18"/>
     </row>
-    <row r="117" spans="1:13" ht="17.5">
+    <row r="117" spans="1:13" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="22"/>
@@ -3147,14 +3191,14 @@
       <c r="L117" s="16"/>
       <c r="M117" s="18"/>
     </row>
-    <row r="118" spans="1:13" ht="17.5">
+    <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="22"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="30"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="15"/>
       <c r="H118" s="10"/>
       <c r="I118" s="17"/>
       <c r="J118" s="28"/>
@@ -3162,7 +3206,7 @@
       <c r="L118" s="16"/>
       <c r="M118" s="18"/>
     </row>
-    <row r="119" spans="1:13" ht="17.5">
+    <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="22"/>
@@ -3177,7 +3221,7 @@
       <c r="L119" s="16"/>
       <c r="M119" s="18"/>
     </row>
-    <row r="120" spans="1:13" ht="17.5">
+    <row r="120" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="22"/>
@@ -3192,7 +3236,7 @@
       <c r="L120" s="16"/>
       <c r="M120" s="18"/>
     </row>
-    <row r="121" spans="1:13" ht="17.5">
+    <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="22"/>
@@ -3203,29 +3247,29 @@
       <c r="H121" s="10"/>
       <c r="I121" s="17"/>
       <c r="J121" s="28"/>
-      <c r="K121" s="21"/>
+      <c r="K121" s="18"/>
       <c r="L121" s="16"/>
       <c r="M121" s="18"/>
     </row>
-    <row r="122" spans="1:13" ht="17.5">
+    <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="22"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="15"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="30"/>
       <c r="H122" s="10"/>
       <c r="I122" s="17"/>
       <c r="J122" s="28"/>
-      <c r="K122" s="18"/>
+      <c r="K122" s="21"/>
       <c r="L122" s="16"/>
       <c r="M122" s="18"/>
     </row>
-    <row r="123" spans="1:13" ht="17.5">
+    <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="19"/>
+      <c r="C123" s="22"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="48"/>
@@ -3235,24 +3279,24 @@
       <c r="J123" s="28"/>
       <c r="K123" s="18"/>
       <c r="L123" s="16"/>
-      <c r="M123" s="25"/>
-    </row>
-    <row r="124" spans="1:13" ht="17.5">
+      <c r="M123" s="18"/>
+    </row>
+    <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="22"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="15"/>
       <c r="H124" s="10"/>
       <c r="I124" s="17"/>
       <c r="J124" s="28"/>
       <c r="K124" s="18"/>
-      <c r="L124" s="24"/>
+      <c r="L124" s="16"/>
       <c r="M124" s="25"/>
     </row>
-    <row r="125" spans="1:13" ht="17.5">
+    <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="22"/>
@@ -3267,7 +3311,7 @@
       <c r="L125" s="24"/>
       <c r="M125" s="25"/>
     </row>
-    <row r="126" spans="1:13" ht="17.5">
+    <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="22"/>
@@ -3282,7 +3326,7 @@
       <c r="L126" s="24"/>
       <c r="M126" s="25"/>
     </row>
-    <row r="127" spans="1:13" ht="17.5">
+    <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="22"/>
@@ -3297,7 +3341,7 @@
       <c r="L127" s="24"/>
       <c r="M127" s="25"/>
     </row>
-    <row r="128" spans="1:13" ht="17.5">
+    <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="22"/>
@@ -3312,7 +3356,7 @@
       <c r="L128" s="24"/>
       <c r="M128" s="25"/>
     </row>
-    <row r="129" spans="1:15" ht="88" customHeight="1">
+    <row r="129" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="22"/>
@@ -3327,7 +3371,7 @@
       <c r="L129" s="24"/>
       <c r="M129" s="25"/>
     </row>
-    <row r="130" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="130" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="22"/>
@@ -3341,10 +3385,8 @@
       <c r="K130" s="18"/>
       <c r="L130" s="24"/>
       <c r="M130" s="25"/>
-      <c r="N130" s="39"/>
-      <c r="O130" s="12"/>
-    </row>
-    <row r="131" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="131" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="22"/>
@@ -3361,7 +3403,7 @@
       <c r="N131" s="39"/>
       <c r="O131" s="12"/>
     </row>
-    <row r="132" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="132" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="22"/>
@@ -3378,24 +3420,24 @@
       <c r="N132" s="39"/>
       <c r="O132" s="12"/>
     </row>
-    <row r="133" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="133" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="15"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="22"/>
       <c r="H133" s="10"/>
       <c r="I133" s="17"/>
       <c r="J133" s="28"/>
       <c r="K133" s="18"/>
-      <c r="L133" s="16"/>
-      <c r="M133" s="18"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="25"/>
       <c r="N133" s="39"/>
       <c r="O133" s="12"/>
     </row>
-    <row r="134" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="134" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="19"/>
@@ -3412,7 +3454,7 @@
       <c r="N134" s="39"/>
       <c r="O134" s="12"/>
     </row>
-    <row r="135" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="135" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="19"/>
@@ -3425,11 +3467,11 @@
       <c r="J135" s="28"/>
       <c r="K135" s="18"/>
       <c r="L135" s="16"/>
-      <c r="M135" s="25"/>
+      <c r="M135" s="18"/>
       <c r="N135" s="39"/>
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="136" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="19"/>
@@ -3446,61 +3488,61 @@
       <c r="N136" s="39"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="137" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="22"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="15"/>
       <c r="H137" s="10"/>
       <c r="I137" s="17"/>
       <c r="J137" s="28"/>
       <c r="K137" s="18"/>
-      <c r="L137" s="24"/>
+      <c r="L137" s="16"/>
       <c r="M137" s="25"/>
       <c r="N137" s="39"/>
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="138" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="14"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="22"/>
       <c r="H138" s="10"/>
       <c r="I138" s="17"/>
       <c r="J138" s="28"/>
       <c r="K138" s="18"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="21"/>
+      <c r="L138" s="24"/>
+      <c r="M138" s="25"/>
       <c r="N138" s="39"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="139" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="29"/>
+      <c r="C139" s="19"/>
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
       <c r="F139" s="19"/>
       <c r="G139" s="14"/>
       <c r="H139" s="10"/>
-      <c r="I139" s="15"/>
+      <c r="I139" s="17"/>
       <c r="J139" s="28"/>
       <c r="K139" s="18"/>
-      <c r="L139" s="16"/>
-      <c r="M139" s="18"/>
+      <c r="L139" s="20"/>
+      <c r="M139" s="21"/>
       <c r="N139" s="39"/>
       <c r="O139" s="12"/>
     </row>
-    <row r="140" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="140" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="19"/>
+      <c r="C140" s="29"/>
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
       <c r="F140" s="19"/>
@@ -3514,7 +3556,7 @@
       <c r="N140" s="39"/>
       <c r="O140" s="12"/>
     </row>
-    <row r="141" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="141" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="19"/>
@@ -3531,7 +3573,7 @@
       <c r="N141" s="39"/>
       <c r="O141" s="12"/>
     </row>
-    <row r="142" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="142" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="19"/>
@@ -3548,7 +3590,7 @@
       <c r="N142" s="39"/>
       <c r="O142" s="12"/>
     </row>
-    <row r="143" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="143" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="19"/>
@@ -3565,7 +3607,7 @@
       <c r="N143" s="39"/>
       <c r="O143" s="12"/>
     </row>
-    <row r="144" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="144" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="19"/>
@@ -3582,7 +3624,7 @@
       <c r="N144" s="39"/>
       <c r="O144" s="12"/>
     </row>
-    <row r="145" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="145" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="19"/>
@@ -3599,7 +3641,7 @@
       <c r="N145" s="39"/>
       <c r="O145" s="12"/>
     </row>
-    <row r="146" spans="1:15" s="11" customFormat="1" ht="145.25" customHeight="1">
+    <row r="146" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="19"/>
@@ -3616,7 +3658,7 @@
       <c r="N146" s="39"/>
       <c r="O146" s="12"/>
     </row>
-    <row r="147" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="147" spans="1:15" s="11" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="19"/>
@@ -3633,7 +3675,7 @@
       <c r="N147" s="39"/>
       <c r="O147" s="12"/>
     </row>
-    <row r="148" spans="1:15" s="11" customFormat="1" ht="112.25" customHeight="1">
+    <row r="148" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="19"/>
@@ -3650,7 +3692,7 @@
       <c r="N148" s="39"/>
       <c r="O148" s="12"/>
     </row>
-    <row r="149" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="149" spans="1:15" s="11" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="19"/>
@@ -3667,7 +3709,7 @@
       <c r="N149" s="39"/>
       <c r="O149" s="12"/>
     </row>
-    <row r="150" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="150" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="19"/>
@@ -3684,7 +3726,7 @@
       <c r="N150" s="39"/>
       <c r="O150" s="12"/>
     </row>
-    <row r="151" spans="1:15" s="11" customFormat="1" ht="132.65" customHeight="1">
+    <row r="151" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="19"/>
@@ -3695,13 +3737,13 @@
       <c r="H151" s="10"/>
       <c r="I151" s="15"/>
       <c r="J151" s="28"/>
-      <c r="K151" s="21"/>
-      <c r="L151" s="20"/>
-      <c r="M151" s="21"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="18"/>
       <c r="N151" s="39"/>
       <c r="O151" s="12"/>
     </row>
-    <row r="152" spans="1:15" s="11" customFormat="1" ht="120.65" customHeight="1">
+    <row r="152" spans="1:15" s="11" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="19"/>
@@ -3712,13 +3754,13 @@
       <c r="H152" s="10"/>
       <c r="I152" s="15"/>
       <c r="J152" s="28"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="16"/>
-      <c r="M152" s="18"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="21"/>
       <c r="N152" s="39"/>
       <c r="O152" s="12"/>
     </row>
-    <row r="153" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="153" spans="1:15" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="19"/>
@@ -3729,13 +3771,13 @@
       <c r="H153" s="10"/>
       <c r="I153" s="15"/>
       <c r="J153" s="28"/>
-      <c r="K153" s="21"/>
-      <c r="L153" s="20"/>
-      <c r="M153" s="21"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="18"/>
       <c r="N153" s="39"/>
       <c r="O153" s="12"/>
     </row>
-    <row r="154" spans="1:15" s="11" customFormat="1" ht="121.25" customHeight="1">
+    <row r="154" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="19"/>
@@ -3747,12 +3789,12 @@
       <c r="I154" s="15"/>
       <c r="J154" s="28"/>
       <c r="K154" s="21"/>
-      <c r="L154" s="16"/>
-      <c r="M154" s="25"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="21"/>
       <c r="N154" s="39"/>
       <c r="O154" s="12"/>
     </row>
-    <row r="155" spans="1:15" s="11" customFormat="1" ht="82.75" customHeight="1">
+    <row r="155" spans="1:15" s="11" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="19"/>
@@ -3763,16 +3805,16 @@
       <c r="H155" s="10"/>
       <c r="I155" s="15"/>
       <c r="J155" s="28"/>
-      <c r="K155" s="18"/>
+      <c r="K155" s="21"/>
       <c r="L155" s="16"/>
       <c r="M155" s="25"/>
       <c r="N155" s="39"/>
       <c r="O155" s="12"/>
     </row>
-    <row r="156" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1">
+    <row r="156" spans="1:15" s="11" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="22"/>
+      <c r="C156" s="19"/>
       <c r="D156" s="14"/>
       <c r="E156" s="14"/>
       <c r="F156" s="19"/>
@@ -3781,12 +3823,12 @@
       <c r="I156" s="15"/>
       <c r="J156" s="28"/>
       <c r="K156" s="18"/>
-      <c r="L156" s="24"/>
+      <c r="L156" s="16"/>
       <c r="M156" s="25"/>
       <c r="N156" s="39"/>
       <c r="O156" s="12"/>
     </row>
-    <row r="157" spans="1:15" s="11" customFormat="1" ht="91.25" customHeight="1">
+    <row r="157" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="22"/>
@@ -3803,7 +3845,7 @@
       <c r="N157" s="39"/>
       <c r="O157" s="12"/>
     </row>
-    <row r="158" spans="1:15" s="11" customFormat="1" ht="63.65" customHeight="1">
+    <row r="158" spans="1:15" s="11" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="22"/>
@@ -3815,12 +3857,12 @@
       <c r="I158" s="15"/>
       <c r="J158" s="28"/>
       <c r="K158" s="18"/>
-      <c r="L158" s="16"/>
-      <c r="M158" s="18"/>
+      <c r="L158" s="24"/>
+      <c r="M158" s="25"/>
       <c r="N158" s="39"/>
       <c r="O158" s="12"/>
     </row>
-    <row r="159" spans="1:15" s="11" customFormat="1" ht="79.75" customHeight="1">
+    <row r="159" spans="1:15" s="11" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="22"/>
@@ -3831,13 +3873,13 @@
       <c r="H159" s="10"/>
       <c r="I159" s="15"/>
       <c r="J159" s="28"/>
-      <c r="K159" s="21"/>
-      <c r="L159" s="20"/>
-      <c r="M159" s="21"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="16"/>
+      <c r="M159" s="18"/>
       <c r="N159" s="39"/>
       <c r="O159" s="12"/>
     </row>
-    <row r="160" spans="1:15" ht="45.65" customHeight="1">
+    <row r="160" spans="1:15" s="11" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="22"/>
@@ -3851,8 +3893,10 @@
       <c r="K160" s="21"/>
       <c r="L160" s="20"/>
       <c r="M160" s="21"/>
-    </row>
-    <row r="161" spans="1:15" ht="82.75" customHeight="1">
+      <c r="N160" s="39"/>
+      <c r="O160" s="12"/>
+    </row>
+    <row r="161" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="22"/>
@@ -3867,10 +3911,10 @@
       <c r="L161" s="20"/>
       <c r="M161" s="21"/>
     </row>
-    <row r="162" spans="1:15" ht="17.5">
+    <row r="162" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="19"/>
+      <c r="C162" s="22"/>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
       <c r="F162" s="19"/>
@@ -3882,7 +3926,7 @@
       <c r="L162" s="20"/>
       <c r="M162" s="21"/>
     </row>
-    <row r="163" spans="1:15" ht="100.25" customHeight="1">
+    <row r="163" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="19"/>
@@ -3897,7 +3941,7 @@
       <c r="L163" s="20"/>
       <c r="M163" s="21"/>
     </row>
-    <row r="164" spans="1:15" ht="103.25" customHeight="1">
+    <row r="164" spans="1:15" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="19"/>
@@ -3912,22 +3956,22 @@
       <c r="L164" s="20"/>
       <c r="M164" s="21"/>
     </row>
-    <row r="165" spans="1:15" ht="89.4" customHeight="1">
+    <row r="165" spans="1:15" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="48"/>
-      <c r="G165" s="15"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="14"/>
       <c r="H165" s="10"/>
       <c r="I165" s="15"/>
       <c r="J165" s="28"/>
-      <c r="K165" s="18"/>
-      <c r="L165" s="16"/>
-      <c r="M165" s="18"/>
-    </row>
-    <row r="166" spans="1:15" ht="77.400000000000006" customHeight="1">
+      <c r="K165" s="21"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="21"/>
+    </row>
+    <row r="166" spans="1:15" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="22"/>
@@ -3942,10 +3986,10 @@
       <c r="L166" s="16"/>
       <c r="M166" s="18"/>
     </row>
-    <row r="167" spans="1:15" ht="73.25" customHeight="1">
+    <row r="167" spans="1:15" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
-      <c r="C167" s="14"/>
+      <c r="C167" s="22"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="48"/>
@@ -3956,10 +4000,8 @@
       <c r="K167" s="18"/>
       <c r="L167" s="16"/>
       <c r="M167" s="18"/>
-      <c r="N167" s="41"/>
-      <c r="O167" s="34"/>
-    </row>
-    <row r="168" spans="1:15" ht="102.5" customHeight="1">
+    </row>
+    <row r="168" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="14"/>
@@ -3976,7 +4018,7 @@
       <c r="N168" s="41"/>
       <c r="O168" s="34"/>
     </row>
-    <row r="169" spans="1:15" ht="73.25" customHeight="1">
+    <row r="169" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="14"/>
@@ -3990,11 +4032,13 @@
       <c r="K169" s="18"/>
       <c r="L169" s="16"/>
       <c r="M169" s="18"/>
-    </row>
-    <row r="170" spans="1:15" ht="67.75" customHeight="1">
+      <c r="N169" s="41"/>
+      <c r="O169" s="34"/>
+    </row>
+    <row r="170" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="19"/>
+      <c r="C170" s="14"/>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
       <c r="F170" s="48"/>
@@ -4005,10 +4049,8 @@
       <c r="K170" s="18"/>
       <c r="L170" s="16"/>
       <c r="M170" s="18"/>
-      <c r="N170" s="41"/>
-      <c r="O170" s="34"/>
-    </row>
-    <row r="171" spans="1:15" ht="71.400000000000006" customHeight="1">
+    </row>
+    <row r="171" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="19"/>
@@ -4019,13 +4061,13 @@
       <c r="H171" s="10"/>
       <c r="I171" s="15"/>
       <c r="J171" s="28"/>
-      <c r="K171" s="21"/>
+      <c r="K171" s="18"/>
       <c r="L171" s="16"/>
-      <c r="M171" s="32"/>
+      <c r="M171" s="18"/>
       <c r="N171" s="41"/>
       <c r="O171" s="34"/>
     </row>
-    <row r="172" spans="1:15" ht="69.650000000000006" customHeight="1">
+    <row r="172" spans="1:15" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="19"/>
@@ -4036,13 +4078,13 @@
       <c r="H172" s="10"/>
       <c r="I172" s="15"/>
       <c r="J172" s="28"/>
-      <c r="K172" s="18"/>
+      <c r="K172" s="21"/>
       <c r="L172" s="16"/>
-      <c r="M172" s="18"/>
+      <c r="M172" s="32"/>
       <c r="N172" s="41"/>
       <c r="O172" s="34"/>
     </row>
-    <row r="173" spans="1:15" ht="43.25" customHeight="1">
+    <row r="173" spans="1:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="19"/>
@@ -4053,13 +4095,13 @@
       <c r="H173" s="10"/>
       <c r="I173" s="15"/>
       <c r="J173" s="28"/>
-      <c r="K173" s="33"/>
+      <c r="K173" s="18"/>
       <c r="L173" s="16"/>
       <c r="M173" s="18"/>
       <c r="N173" s="41"/>
       <c r="O173" s="34"/>
     </row>
-    <row r="174" spans="1:15" ht="53.4" customHeight="1">
+    <row r="174" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="19"/>
@@ -4070,13 +4112,13 @@
       <c r="H174" s="10"/>
       <c r="I174" s="15"/>
       <c r="J174" s="28"/>
-      <c r="K174" s="18"/>
+      <c r="K174" s="33"/>
       <c r="L174" s="16"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="42"/>
+      <c r="M174" s="18"/>
+      <c r="N174" s="41"/>
       <c r="O174" s="34"/>
     </row>
-    <row r="175" spans="1:15" ht="79.25" customHeight="1">
+    <row r="175" spans="1:15" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="19"/>
@@ -4093,7 +4135,7 @@
       <c r="N175" s="42"/>
       <c r="O175" s="34"/>
     </row>
-    <row r="176" spans="1:15" ht="120.65" customHeight="1">
+    <row r="176" spans="1:15" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="19"/>
@@ -4104,16 +4146,16 @@
       <c r="H176" s="10"/>
       <c r="I176" s="15"/>
       <c r="J176" s="28"/>
-      <c r="K176" s="21"/>
+      <c r="K176" s="18"/>
       <c r="L176" s="16"/>
-      <c r="M176" s="18"/>
+      <c r="M176" s="21"/>
       <c r="N176" s="42"/>
       <c r="O176" s="34"/>
     </row>
-    <row r="177" spans="1:13" ht="94.75" customHeight="1">
+    <row r="177" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
-      <c r="C177" s="22"/>
+      <c r="C177" s="19"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="48"/>
@@ -4121,11 +4163,13 @@
       <c r="H177" s="10"/>
       <c r="I177" s="15"/>
       <c r="J177" s="28"/>
-      <c r="K177" s="18"/>
+      <c r="K177" s="21"/>
       <c r="L177" s="16"/>
       <c r="M177" s="18"/>
-    </row>
-    <row r="178" spans="1:13" ht="67.75" customHeight="1">
+      <c r="N177" s="42"/>
+      <c r="O177" s="34"/>
+    </row>
+    <row r="178" spans="1:15" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="22"/>
@@ -4140,7 +4184,7 @@
       <c r="L178" s="16"/>
       <c r="M178" s="18"/>
     </row>
-    <row r="179" spans="1:13" ht="17.5">
+    <row r="179" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="22"/>
@@ -4155,7 +4199,7 @@
       <c r="L179" s="16"/>
       <c r="M179" s="18"/>
     </row>
-    <row r="180" spans="1:13" ht="17.5">
+    <row r="180" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="22"/>
@@ -4170,7 +4214,7 @@
       <c r="L180" s="16"/>
       <c r="M180" s="18"/>
     </row>
-    <row r="181" spans="1:13" ht="17.5">
+    <row r="181" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="22"/>
@@ -4185,7 +4229,7 @@
       <c r="L181" s="16"/>
       <c r="M181" s="18"/>
     </row>
-    <row r="182" spans="1:13" ht="17.5">
+    <row r="182" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="22"/>
@@ -4200,7 +4244,7 @@
       <c r="L182" s="16"/>
       <c r="M182" s="18"/>
     </row>
-    <row r="183" spans="1:13" ht="17.5">
+    <row r="183" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="22"/>
@@ -4215,10 +4259,25 @@
       <c r="L183" s="16"/>
       <c r="M183" s="18"/>
     </row>
+    <row r="184" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A184" s="6"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="28"/>
+      <c r="K184" s="18"/>
+      <c r="L184" s="16"/>
+      <c r="M184" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2:H9" r:id="rId1" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H2:H10" r:id="rId1" display="https://user-center-thu.tunaikita.id/grant"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
